--- a/biology/Zoologie/Dolichotis/Dolichotis.xlsx
+++ b/biology/Zoologie/Dolichotis/Dolichotis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maras
-Dolichotis[1] est l'unique genre de la sous-famille des Dolichotinae. Ce sont des Rongeurs que l'on appelle des maras en français et qui font partie de la famille des Cavidés.
+Dolichotis est l'unique genre de la sous-famille des Dolichotinae. Ce sont des Rongeurs que l'on appelle des maras en français et qui font partie de la famille des Cavidés.
 Le genre a été décrit pour la première fois en 1820 par le zoologiste français Anselme Gaëtan Desmarest (1784-1838) et la sous-famille un peu plus d'un siècle plus tard, en 1922, par le zoologiste britannique Reginald Innes Pocock (1863-1947).
 </t>
         </is>
@@ -513,13 +525,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (21 janv. 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (21 janv. 2013) :
 Sous-famille Dolichotinae
 genre Dolichotis
-Dolichotis patagonum - le Mara[3],[4] ou Lièvre des pampas de Patagonie[4]
-Dolichotis salinicola - le Cobaye halophile[3] ou Mara solicole[5]</t>
+Dolichotis patagonum - le Mara, ou Lièvre des pampas de Patagonie
+Dolichotis salinicola - le Cobaye halophile ou Mara solicole</t>
         </is>
       </c>
     </row>
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maras sont présents au centre de la partie inférieures de l'Amérique du Sud, sur une aire qui longe la Cordillère des Andes et principalement située en Argentine. 
 			Mara patagonien (Dolichotis patagonum)
